--- a/analysis/Riigieksami_tulemused_MIN_2_sagedus.xlsx
+++ b/analysis/Riigieksami_tulemused_MIN_2_sagedus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HermanPetrov\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HermanPetrov\Desktop\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52A50E8-91A7-44DD-969D-1F34C417E361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FE723E-293A-47B8-9E4A-01769CD1D15B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="1110" windowWidth="45435" windowHeight="18780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1710" yWindow="150" windowWidth="45435" windowHeight="18780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LEMMAD" sheetId="1" r:id="rId1"/>
@@ -1610,7 +1610,7 @@
   <dimension ref="A1:U79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4959,7 +4959,7 @@
   <dimension ref="A1:U55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5009,7 +5009,7 @@
         <v>67</v>
       </c>
       <c r="B12" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I12" s="5">
         <v>25</v>
